--- a/data/trans_camb/P1423-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.03799944723285528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.591526910860713</v>
+        <v>4.591526910860712</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.888001382614583</v>
@@ -664,7 +664,7 @@
         <v>3.175610021690943</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>7.090753333398643</v>
+        <v>7.090753333398641</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5960117837985083</v>
+        <v>-0.3550603651307455</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.089920342090596</v>
+        <v>-2.141061619043891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.117403045757289</v>
+        <v>1.983631919902075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.322325938040973</v>
+        <v>4.93772351730091</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.606547519902562</v>
+        <v>2.872404075924529</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.824271204004719</v>
+        <v>6.003371218959641</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.573031159257484</v>
+        <v>3.618925682426445</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.212523067975653</v>
+        <v>1.297511837668641</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.021940077881288</v>
+        <v>5.154223633131898</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.983541578325513</v>
+        <v>3.878175474783643</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.184682851879781</v>
+        <v>2.127561721903759</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.677029236134282</v>
+        <v>7.376937010108166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.79344414001612</v>
+        <v>10.53294463605592</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.572265973205585</v>
+        <v>8.992913849938455</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.35808623951452</v>
+        <v>11.33371933535853</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.234559518257573</v>
+        <v>7.316568233315647</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.1892998964307</v>
+        <v>5.282408102681566</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.129957605058316</v>
+        <v>9.168745034928614</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.007197434326732839</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8696761612830261</v>
+        <v>0.8696761612830257</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6969974756165731</v>
@@ -769,7 +769,7 @@
         <v>0.3665768146311895</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.8185217178867226</v>
+        <v>0.8185217178867222</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1077021255929554</v>
+        <v>-0.07403983624873602</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3478193546153314</v>
+        <v>-0.3509636808022619</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3134896952343504</v>
+        <v>0.2987622016392752</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4051288375887753</v>
+        <v>0.3878965237453991</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2103999618872825</v>
+        <v>0.2223759222139534</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4578399598512874</v>
+        <v>0.4688127561204644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3784619415835965</v>
+        <v>0.3717317739395848</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.13104910515476</v>
+        <v>0.1311110884222079</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5247540445441774</v>
+        <v>0.5386528993731309</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8825552467432187</v>
+        <v>0.8832814281245572</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4917161420334687</v>
+        <v>0.5074849079651891</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.638927701381548</v>
+        <v>1.612065716800122</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.088982786088578</v>
+        <v>1.025998254256477</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.851082071063362</v>
+        <v>0.9005919549641326</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.133301410422037</v>
+        <v>1.131902381368595</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9485367634295337</v>
+        <v>0.9282504786691022</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6661430311099698</v>
+        <v>0.6502763541119104</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.16317511477938</v>
+        <v>1.138045368527457</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.225735353917589</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.509482616403329</v>
+        <v>5.509482616403327</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.472982677919844</v>
@@ -878,7 +878,7 @@
         <v>2.122776665223416</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.524731834972563</v>
+        <v>4.524731834972565</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2073577743131989</v>
+        <v>0.1307157524409071</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07234330813032525</v>
+        <v>0.03661354633114935</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.209470068082529</v>
+        <v>2.381361438853346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3864207985979956</v>
+        <v>0.01561630490376052</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.485005342026571</v>
+        <v>1.542968060287844</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.83138427268312</v>
+        <v>3.896640397844148</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4874305788675165</v>
+        <v>0.4980025404557334</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.099534233461467</v>
+        <v>1.065632252104309</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.551780512672743</v>
+        <v>3.453750031501965</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.411939074599434</v>
+        <v>2.34445304880011</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.09850050481521</v>
+        <v>2.012604753990057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.679475461773593</v>
+        <v>4.68815571362139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.806156501250813</v>
+        <v>3.575306783793456</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.0504580862292</v>
+        <v>5.053487085986087</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.167091283115989</v>
+        <v>7.228365896503014</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.407036315093766</v>
+        <v>2.555426190278429</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.216229901942306</v>
+        <v>3.079550248773764</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.513787261898399</v>
+        <v>5.506576306877287</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.5838080622095502</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.997130891768068</v>
+        <v>0.9971308917680675</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4038467599362791</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.07923637604650725</v>
+        <v>0.05271168445560112</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02715997774890659</v>
+        <v>0.003096163923156747</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9589825809172414</v>
+        <v>1.002535677477414</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05694999618684438</v>
+        <v>-0.001207594050064939</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2336761996817195</v>
+        <v>0.2421694223747518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5860603376106671</v>
+        <v>0.5960718856371369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1239165390366209</v>
+        <v>0.1121649538872646</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.256791412159986</v>
+        <v>0.2527798741028615</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8612651421384852</v>
+        <v>0.8066585923980057</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.653804944037695</v>
+        <v>1.578173117242956</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.563893853045726</v>
+        <v>1.445216328983015</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.360465714420466</v>
+        <v>3.297575984171254</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.836049718567405</v>
+        <v>0.7522871244509087</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.046008949896572</v>
+        <v>1.070679669141481</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.572662254356205</v>
+        <v>1.587051583634184</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7868327820206732</v>
+        <v>0.8006253876919416</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.024719703555192</v>
+        <v>0.9694144996520013</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.757749122927688</v>
+        <v>1.742069412817439</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.9224313216616393</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.810323066162843</v>
+        <v>2.810323066162842</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.925993236984498</v>
+        <v>-1.994384131305445</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.66150000286317</v>
+        <v>-2.621603480328011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4272145227081763</v>
+        <v>0.4197285046015191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.936848670833417</v>
+        <v>-3.154197250959326</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.602365162999842</v>
+        <v>-3.774426666472412</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3033783215885256</v>
+        <v>0.4323137029621478</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.698939271665299</v>
+        <v>-1.853082132978695</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.539955369180791</v>
+        <v>-2.329253450690445</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.110454422606913</v>
+        <v>1.166427013213612</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.314886878143995</v>
+        <v>2.17976570775705</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9857465427452818</v>
+        <v>0.9768217724698415</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.90917259993934</v>
+        <v>4.937508016891452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.223747606534808</v>
+        <v>2.223515306882301</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.433930295415026</v>
+        <v>1.23277809205514</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.34961598492756</v>
+        <v>5.177866600476611</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.748051610490509</v>
+        <v>1.692380436294212</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5417972275573324</v>
+        <v>0.6981077897634186</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.507175486412815</v>
+        <v>4.587320544957401</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2927879007403939</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.9596073976205454</v>
+        <v>0.9596073976205451</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1126272118206856</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2669298413135439</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8132411296911801</v>
+        <v>0.8132411296911798</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5718142140987639</v>
+        <v>-0.5558800338472303</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.721599132399251</v>
+        <v>-0.7188700017166686</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.0278672789574095</v>
+        <v>0.0455740671562247</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5627660764917766</v>
+        <v>-0.5600696420383894</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6229364909403745</v>
+        <v>-0.6481703193337645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01757776516394693</v>
+        <v>0.03894873140533492</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4198568638911651</v>
+        <v>-0.4338602918539173</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6033066307025245</v>
+        <v>-0.5660633102566612</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2333240081919122</v>
+        <v>0.259569497360803</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.32823742266286</v>
+        <v>1.229416228925566</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8071060218778668</v>
+        <v>0.6708522322431326</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.647696536120046</v>
+        <v>2.854490425363635</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.806065858724149</v>
+        <v>0.7652566024404035</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5396717602588987</v>
+        <v>0.4527916438034178</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.921554527736076</v>
+        <v>1.710225291026745</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6568134967427109</v>
+        <v>0.6220810816297645</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.203008700859407</v>
+        <v>0.2727604079515799</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.689930902191206</v>
+        <v>1.732287954080249</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.1796721378398418</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.014177546043727</v>
+        <v>3.014177546043728</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.781986469087656</v>
@@ -1306,7 +1306,7 @@
         <v>1.406490757385322</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.870325643233212</v>
+        <v>3.870325643233214</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.139177367923821</v>
+        <v>0.0100514487372705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6734943003848992</v>
+        <v>-0.6709227584355476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.980850571845918</v>
+        <v>2.05389288802626</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.342761769948691</v>
+        <v>2.23315998626836</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.206438502509511</v>
+        <v>1.027412825260335</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.329409717606428</v>
+        <v>3.283481934041622</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.50656455545806</v>
+        <v>1.665769218333068</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5933584788152952</v>
+        <v>0.5341140495575906</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.034288631601532</v>
+        <v>3.131534479331672</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.102171606374877</v>
+        <v>1.908454034549356</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.082025849142479</v>
+        <v>1.038366615993274</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.087736583121102</v>
+        <v>4.008306241504419</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.155971928455911</v>
+        <v>5.106394896940651</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.83788953787489</v>
+        <v>3.863238079701903</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.956153309151647</v>
+        <v>5.94945683673821</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.304990896702457</v>
+        <v>3.473151990773292</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.162785038563751</v>
+        <v>2.212766321497097</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.688127707859571</v>
+        <v>4.741433852361429</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.05807255541808531</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9742244662252684</v>
+        <v>0.9742244662252688</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4970437890692931</v>
@@ -1411,7 +1411,7 @@
         <v>0.2611256099870219</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7185551267442921</v>
+        <v>0.7185551267442924</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02670003360008407</v>
+        <v>-0.009240930419287922</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1911315664845167</v>
+        <v>-0.1918847518316528</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5460420189045453</v>
+        <v>0.5678499868053044</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2794114930199322</v>
+        <v>0.2649503031633666</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1453610767426166</v>
+        <v>0.1193264469341921</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3900137010902138</v>
+        <v>0.3912734709372447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2625011285652633</v>
+        <v>0.2854613167601389</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1007465964598352</v>
+        <v>0.09221217629076912</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5144579537874443</v>
+        <v>0.5314342728431485</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7519543595364712</v>
+        <v>0.6972103163442357</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4168656821031804</v>
+        <v>0.3949268933076274</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.527190642419175</v>
+        <v>1.455069482990389</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7384783225818806</v>
+        <v>0.7383698166139667</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5396674279502623</v>
+        <v>0.5552490451860447</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8576718098530678</v>
+        <v>0.8586273424464762</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6699810822596637</v>
+        <v>0.6917274556806613</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4264243475651351</v>
+        <v>0.4427025987845498</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9473651479907894</v>
+        <v>0.9608199091713046</v>
       </c>
     </row>
     <row r="28">
